--- a/Sheet/GameData.xlsx
+++ b/Sheet/GameData.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy05\Documents\GitHub\B.A.D\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F98CB6-B891-4744-9899-23CE46306CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB40C082-3B43-40FB-BD3C-3A4C1393BDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Reference" sheetId="2" r:id="rId1"/>
+    <sheet name="Hero" sheetId="1" r:id="rId2"/>
+    <sheet name="Mob" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,21 +27,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baelz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kronii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChaosClock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChaosClockShooter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -47,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,13 +100,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,8 +134,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -364,55 +417,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246F39D6-D745-4E02-A8DA-4358CDFD2980}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>55</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A453538-03A1-4934-A5F4-59C6045664DE}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100</v>
+      </c>
       <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
+      <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Sheet/GameData.xlsx
+++ b/Sheet/GameData.xlsx
@@ -1,33 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy05\Documents\GitHub\B.A.D\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB40C082-3B43-40FB-BD3C-3A4C1393BDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C865AC1-5821-4E0A-8D75-8528ED6FFFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30780" yWindow="4365" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
     <sheet name="Hero" sheetId="1" r:id="rId2"/>
     <sheet name="Mob" sheetId="3" r:id="rId3"/>
+    <sheet name="Side" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,14 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nameId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Kronii</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,6 +82,114 @@
   </si>
   <si>
     <t>ChaosClockShooter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sideType0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetType0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~targetType0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~sideType0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~targetType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sideType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~sideType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~targetType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sideType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~sideType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,8 +233,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -130,14 +248,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -418,18 +585,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246F39D6-D745-4E02-A8DA-4358CDFD2980}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -437,89 +702,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E3" s="4">
+        <v>55</v>
+      </c>
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>55</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="4">
         <v>1</v>
       </c>
     </row>
@@ -531,75 +787,512 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A453538-03A1-4934-A5F4-59C6045664DE}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>101</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C16EF11-51E7-44C0-9182-A83FA72B87D8}">
+  <dimension ref="A1:W7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="12" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="15.625" customWidth="1"/>
+    <col min="15" max="15" width="12.625" customWidth="1"/>
+    <col min="16" max="16" width="15.625" customWidth="1"/>
+    <col min="17" max="17" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>VLOOKUP(C2, Reference!$A$3:$B$8, 2)</f>
+        <v>적 하나</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>VLOOKUP(E2, Reference!$D$3:$E$8, 2)</f>
+        <v>공격</v>
+      </c>
+      <c r="G2" s="4">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f>VLOOKUP(H2, Reference!$A$3:$B$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="J2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="4" t="str">
+        <f>VLOOKUP(J2, Reference!$D$3:$E$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N2" s="4" t="str">
+        <f>VLOOKUP(M2, Reference!$A$3:$B$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="O2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P2" s="4" t="str">
+        <f>VLOOKUP(O2, Reference!$D$3:$E$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>VLOOKUP(C3, Reference!$A$3:$B$8, 2)</f>
+        <v>자신</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f>VLOOKUP(E3, Reference!$D$3:$E$8, 2)</f>
+        <v>수비</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f>VLOOKUP(H3, Reference!$A$3:$B$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="J3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="4" t="str">
+        <f>VLOOKUP(J3, Reference!$D$3:$E$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="4" t="str">
+        <f>VLOOKUP(M3, Reference!$A$3:$B$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="O3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <f>VLOOKUP(O3, Reference!$D$3:$E$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f>VLOOKUP(C4, Reference!$A$3:$B$8, 2)</f>
+        <v>자신</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f>VLOOKUP(E4, Reference!$D$3:$E$8, 2)</f>
+        <v>버프</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f>VLOOKUP(H4, Reference!$A$3:$B$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="4" t="str">
+        <f>VLOOKUP(J4, Reference!$D$3:$E$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="4" t="str">
+        <f>VLOOKUP(M4, Reference!$A$3:$B$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="O4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <f>VLOOKUP(O4, Reference!$D$3:$E$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f>VLOOKUP(C5, Reference!$A$3:$B$8, 2)</f>
+        <v>자신</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f>VLOOKUP(E5, Reference!$D$3:$E$8, 2)</f>
+        <v>디버프</v>
+      </c>
+      <c r="G5" s="4">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>101</v>
-      </c>
-      <c r="B3">
-        <v>101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
+      <c r="H5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f>VLOOKUP(H5, Reference!$A$3:$B$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="J5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="4" t="str">
+        <f>VLOOKUP(J5, Reference!$D$3:$E$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="4" t="str">
+        <f>VLOOKUP(M5, Reference!$A$3:$B$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="O5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="4" t="str">
+        <f>VLOOKUP(O5, Reference!$D$3:$E$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f>VLOOKUP(C6, Reference!$A$3:$B$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f>VLOOKUP(E6, Reference!$D$3:$E$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f>VLOOKUP(H6, Reference!$A$3:$B$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="J6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="4" t="str">
+        <f>VLOOKUP(J6, Reference!$D$3:$E$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="4" t="str">
+        <f>VLOOKUP(M6, Reference!$A$3:$B$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="O6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="4" t="str">
+        <f>VLOOKUP(O6, Reference!$D$3:$E$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f>VLOOKUP(C7, Reference!$A$3:$B$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f>VLOOKUP(E7, Reference!$D$3:$E$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f>VLOOKUP(H7, Reference!$A$3:$B$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="J7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="4" t="str">
+        <f>VLOOKUP(J7, Reference!$D$3:$E$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="4" t="str">
+        <f>VLOOKUP(M7, Reference!$A$3:$B$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="O7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f>VLOOKUP(O7, Reference!$D$3:$E$8, 2)</f>
+        <v>없음</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
